--- a/Output/Supplementary/IHM_self_reported_education.xlsx
+++ b/Output/Supplementary/IHM_self_reported_education.xlsx
@@ -427,17 +427,17 @@
         </is>
       </c>
       <c r="C3">
-        <v>12812</v>
+        <v>12811</v>
       </c>
       <c r="D3">
         <v>3603</v>
       </c>
       <c r="E3">
-        <v>0.2812207305650952</v>
+        <v>0.281242682070096</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3603/12812 (28%)</t>
+          <t>3603/12811 (28%)</t>
         </is>
       </c>
     </row>
